--- a/Supp_tables.xlsx
+++ b/Supp_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mann/Dropbox/publications/2020-Necrobiome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mann/Dropbox/publications/published/2022-Necrobiome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C4FC9-9AC5-D042-84FA-26446D3BF648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F1805F-6877-4C43-9FD2-3D0971F978A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="237">
   <si>
     <t>Blank</t>
   </si>
@@ -309,24 +309,12 @@
     <t>E</t>
   </si>
   <si>
-    <t>D38-2018</t>
-  </si>
-  <si>
-    <t>W29-32</t>
-  </si>
-  <si>
     <t>20C</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>2.018.038</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -726,19 +714,34 @@
     <t>ERS13666055</t>
   </si>
   <si>
-    <t>ERS13666056</t>
-  </si>
-  <si>
-    <t>ERS13666057</t>
-  </si>
-  <si>
-    <t>ERS13666058</t>
-  </si>
-  <si>
-    <t>ERS13666059</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>BMI_classification</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>obese</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>overweight</t>
+  </si>
+  <si>
+    <t>underweight</t>
   </si>
 </sst>
 </file>
@@ -2705,3860 +2708,4190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>82</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="U2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="U3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>99</v>
-      </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C5">
+        <v>45.2</v>
       </c>
       <c r="D5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5">
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5">
         <v>798</v>
       </c>
-      <c r="H5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5">
         <v>39.9</v>
       </c>
-      <c r="K5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" t="s">
-        <v>141</v>
-      </c>
       <c r="N5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O5" s="2">
+        <v>110</v>
+      </c>
+      <c r="O5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" s="2">
         <v>43658</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>7</v>
       </c>
-      <c r="Q5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" t="s">
-        <v>116</v>
-      </c>
       <c r="T5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C6">
+        <v>45.2</v>
       </c>
       <c r="D6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" t="s">
         <v>91</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>798</v>
       </c>
-      <c r="H6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6">
+      <c r="K6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6">
         <v>39.9</v>
       </c>
-      <c r="K6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" t="s">
-        <v>141</v>
-      </c>
       <c r="N6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="2">
+        <v>110</v>
+      </c>
+      <c r="O6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="2">
         <v>43658</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>7</v>
       </c>
-      <c r="Q6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S6" t="s">
-        <v>116</v>
-      </c>
       <c r="T6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C7">
+        <v>45.2</v>
       </c>
       <c r="D7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7">
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7">
         <v>798</v>
       </c>
-      <c r="H7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7">
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7">
         <v>39.9</v>
       </c>
-      <c r="K7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" t="s">
-        <v>141</v>
-      </c>
       <c r="N7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O7" s="2">
+        <v>110</v>
+      </c>
+      <c r="O7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="2">
         <v>43658</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>7</v>
       </c>
-      <c r="Q7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" t="s">
-        <v>99</v>
-      </c>
-      <c r="S7" t="s">
-        <v>116</v>
-      </c>
       <c r="T7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" t="s">
+        <v>112</v>
+      </c>
+      <c r="W7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C8">
+        <v>45.2</v>
       </c>
       <c r="D8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>91</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>798</v>
       </c>
-      <c r="H8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8">
+      <c r="K8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8">
         <v>39.9</v>
       </c>
-      <c r="K8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" t="s">
-        <v>141</v>
-      </c>
       <c r="N8" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="2">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="2">
         <v>43658</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>7</v>
       </c>
-      <c r="Q8" t="s">
-        <v>98</v>
-      </c>
-      <c r="R8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" t="s">
-        <v>116</v>
-      </c>
       <c r="T8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U8" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9">
+        <v>21.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9">
+        <v>802</v>
+      </c>
+      <c r="K9" t="s">
         <v>132</v>
       </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9">
+        <v>38.9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" t="s">
         <v>101</v>
       </c>
-      <c r="G9">
-        <v>802</v>
-      </c>
-      <c r="H9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9">
-        <v>38.9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="Q9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="2">
         <v>43658</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="Q9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" t="s">
-        <v>116</v>
-      </c>
       <c r="T9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10">
+        <v>21.7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10">
+        <v>802</v>
+      </c>
+      <c r="K10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10">
-        <v>802</v>
-      </c>
-      <c r="H10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10">
+      <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10">
         <v>38.9</v>
       </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" t="s">
-        <v>105</v>
-      </c>
       <c r="N10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="2">
         <v>43658</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>7</v>
       </c>
-      <c r="Q10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" t="s">
-        <v>116</v>
-      </c>
       <c r="T10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" t="s">
+        <v>112</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11">
+        <v>21.7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11">
+        <v>802</v>
+      </c>
+      <c r="K11" t="s">
         <v>132</v>
       </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11">
+        <v>38.9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="s">
         <v>101</v>
       </c>
-      <c r="G11">
-        <v>802</v>
-      </c>
-      <c r="H11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11">
-        <v>38.9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" t="s">
-        <v>105</v>
-      </c>
-      <c r="N11" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="Q11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="2">
         <v>43658</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>7</v>
       </c>
-      <c r="Q11" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" t="s">
-        <v>116</v>
-      </c>
       <c r="T11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U11" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" t="s">
+        <v>112</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12">
+        <v>21.7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12">
+        <v>802</v>
+      </c>
+      <c r="K12" t="s">
         <v>132</v>
       </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12">
-        <v>802</v>
-      </c>
-      <c r="H12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12">
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12">
         <v>38.9</v>
       </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" t="s">
-        <v>105</v>
-      </c>
       <c r="N12" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="2">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="2">
         <v>43658</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="Q12" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S12" t="s">
-        <v>116</v>
-      </c>
       <c r="T12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U12" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" t="s">
+        <v>112</v>
+      </c>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C13">
+        <v>24.2</v>
       </c>
       <c r="D13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
         <v>89</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13">
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13">
         <v>804</v>
       </c>
-      <c r="H13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13">
-        <v>37.9</v>
-      </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
         <v>130</v>
       </c>
-      <c r="M13" t="s">
-        <v>105</v>
+      <c r="M13">
+        <v>37.9</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" s="2">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" s="2">
         <v>43657</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>8</v>
       </c>
-      <c r="Q13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" t="s">
-        <v>116</v>
-      </c>
       <c r="T13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U13" t="s">
+        <v>95</v>
+      </c>
+      <c r="V13" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C14">
+        <v>24.2</v>
       </c>
       <c r="D14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>90</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>91</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>804</v>
       </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14">
-        <v>37.9</v>
-      </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="M14" t="s">
-        <v>105</v>
+      <c r="M14">
+        <v>37.9</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" s="2">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="2">
         <v>43657</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>8</v>
       </c>
-      <c r="Q14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" t="s">
-        <v>116</v>
-      </c>
       <c r="T14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U14" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" t="s">
+        <v>112</v>
+      </c>
+      <c r="W14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C15">
+        <v>24.2</v>
       </c>
       <c r="D15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15">
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15">
         <v>804</v>
       </c>
-      <c r="H15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15">
-        <v>37.9</v>
-      </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
         <v>130</v>
       </c>
-      <c r="M15" t="s">
-        <v>105</v>
+      <c r="M15">
+        <v>37.9</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" s="2">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>131</v>
+      </c>
+      <c r="R15" s="2">
         <v>43657</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>8</v>
       </c>
-      <c r="Q15" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" t="s">
-        <v>116</v>
-      </c>
       <c r="T15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U15" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C16">
+        <v>24.2</v>
       </c>
       <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
         <v>91</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>804</v>
       </c>
-      <c r="H16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16">
-        <v>37.9</v>
-      </c>
       <c r="K16" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s">
         <v>130</v>
       </c>
-      <c r="M16" t="s">
-        <v>105</v>
+      <c r="M16">
+        <v>37.9</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
-      </c>
-      <c r="O16" s="2">
+        <v>110</v>
+      </c>
+      <c r="O16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="2">
         <v>43657</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>8</v>
       </c>
-      <c r="Q16" t="s">
-        <v>98</v>
-      </c>
-      <c r="R16" t="s">
-        <v>99</v>
-      </c>
-      <c r="S16" t="s">
-        <v>116</v>
-      </c>
       <c r="T16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U16" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C17">
+        <v>24.9</v>
       </c>
       <c r="D17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17">
+        <v>806</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17">
+        <v>44.5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" t="s">
         <v>101</v>
       </c>
-      <c r="G17">
-        <v>806</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="Q17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="2">
+        <v>43645</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
+        <v>106</v>
+      </c>
+      <c r="U17" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" t="s">
+        <v>143</v>
+      </c>
+      <c r="W17" t="s">
         <v>154</v>
       </c>
-      <c r="I17" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17">
-        <v>44.5</v>
-      </c>
-      <c r="K17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" t="s">
-        <v>105</v>
-      </c>
-      <c r="N17" t="s">
-        <v>156</v>
-      </c>
-      <c r="O17" s="2">
-        <v>43645</v>
-      </c>
-      <c r="P17">
-        <v>20</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" t="s">
-        <v>157</v>
-      </c>
-      <c r="S17" t="s">
-        <v>147</v>
-      </c>
-      <c r="T17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C18">
+        <v>24.9</v>
       </c>
       <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>90</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>91</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>806</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18">
+        <v>44.5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18" s="2">
+        <v>43645</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+      <c r="T18" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" t="s">
+        <v>153</v>
+      </c>
+      <c r="V18" t="s">
+        <v>143</v>
+      </c>
+      <c r="W18" t="s">
         <v>154</v>
       </c>
-      <c r="I18" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18">
-        <v>44.5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" t="s">
-        <v>105</v>
-      </c>
-      <c r="N18" t="s">
-        <v>156</v>
-      </c>
-      <c r="O18" s="2">
-        <v>43645</v>
-      </c>
-      <c r="P18">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" t="s">
-        <v>157</v>
-      </c>
-      <c r="S18" t="s">
-        <v>147</v>
-      </c>
-      <c r="T18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C19">
+        <v>24.9</v>
       </c>
       <c r="D19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
         <v>89</v>
       </c>
-      <c r="E19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19">
+        <v>806</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19">
+        <v>44.5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" t="s">
         <v>101</v>
       </c>
-      <c r="G19">
-        <v>806</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="Q19" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="2">
+        <v>43645</v>
+      </c>
+      <c r="S19">
+        <v>20</v>
+      </c>
+      <c r="T19" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19" t="s">
+        <v>153</v>
+      </c>
+      <c r="V19" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" t="s">
         <v>154</v>
       </c>
-      <c r="I19" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19">
-        <v>44.5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L19" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N19" t="s">
-        <v>156</v>
-      </c>
-      <c r="O19" s="2">
-        <v>43645</v>
-      </c>
-      <c r="P19">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>110</v>
-      </c>
-      <c r="R19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S19" t="s">
-        <v>147</v>
-      </c>
-      <c r="T19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C20">
+        <v>24.9</v>
       </c>
       <c r="D20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
         <v>89</v>
       </c>
-      <c r="E20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
         <v>91</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>806</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20">
+        <v>44.5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>152</v>
+      </c>
+      <c r="R20" s="2">
+        <v>43645</v>
+      </c>
+      <c r="S20">
+        <v>20</v>
+      </c>
+      <c r="T20" t="s">
+        <v>106</v>
+      </c>
+      <c r="U20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V20" t="s">
+        <v>143</v>
+      </c>
+      <c r="W20" t="s">
         <v>154</v>
       </c>
-      <c r="I20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20">
-        <v>44.5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" t="s">
-        <v>105</v>
-      </c>
-      <c r="N20" t="s">
-        <v>156</v>
-      </c>
-      <c r="O20" s="2">
-        <v>43645</v>
-      </c>
-      <c r="P20">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>110</v>
-      </c>
-      <c r="R20" t="s">
-        <v>157</v>
-      </c>
-      <c r="S20" t="s">
-        <v>147</v>
-      </c>
-      <c r="T20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C21">
+        <v>33.200000000000003</v>
       </c>
       <c r="D21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
         <v>89</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21">
+        <v>808</v>
+      </c>
+      <c r="K21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21">
+        <v>44.1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="s">
         <v>101</v>
       </c>
-      <c r="G21">
-        <v>808</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="Q21">
+        <v>2019.04</v>
+      </c>
+      <c r="R21" s="2">
+        <v>43647</v>
+      </c>
+      <c r="S21">
+        <v>18</v>
+      </c>
+      <c r="T21" t="s">
+        <v>106</v>
+      </c>
+      <c r="U21" t="s">
+        <v>142</v>
+      </c>
+      <c r="V21" t="s">
         <v>143</v>
       </c>
-      <c r="I21" t="s">
+      <c r="W21" t="s">
         <v>144</v>
       </c>
-      <c r="J21">
-        <v>44.1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M21" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21">
-        <v>2019.04</v>
-      </c>
-      <c r="O21" s="2">
-        <v>43647</v>
-      </c>
-      <c r="P21">
-        <v>18</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" t="s">
-        <v>146</v>
-      </c>
-      <c r="S21" t="s">
-        <v>147</v>
-      </c>
-      <c r="T21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C22">
+        <v>33.200000000000003</v>
       </c>
       <c r="D22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>90</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>91</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>808</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22">
+        <v>44.1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22">
+        <v>2019.04</v>
+      </c>
+      <c r="R22" s="2">
+        <v>43647</v>
+      </c>
+      <c r="S22">
+        <v>18</v>
+      </c>
+      <c r="T22" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22" t="s">
+        <v>142</v>
+      </c>
+      <c r="V22" t="s">
         <v>143</v>
       </c>
-      <c r="I22" t="s">
+      <c r="W22" t="s">
         <v>144</v>
       </c>
-      <c r="J22">
-        <v>44.1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" t="s">
-        <v>130</v>
-      </c>
-      <c r="M22" t="s">
-        <v>105</v>
-      </c>
-      <c r="N22">
-        <v>2019.04</v>
-      </c>
-      <c r="O22" s="2">
-        <v>43647</v>
-      </c>
-      <c r="P22">
-        <v>18</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>110</v>
-      </c>
-      <c r="R22" t="s">
-        <v>146</v>
-      </c>
-      <c r="S22" t="s">
-        <v>147</v>
-      </c>
-      <c r="T22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C23">
+        <v>33.200000000000003</v>
       </c>
       <c r="D23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
         <v>89</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23">
+        <v>808</v>
+      </c>
+      <c r="K23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23">
+        <v>44.1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="s">
         <v>101</v>
       </c>
-      <c r="G23">
-        <v>808</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="Q23">
+        <v>2019.04</v>
+      </c>
+      <c r="R23" s="2">
+        <v>43647</v>
+      </c>
+      <c r="S23">
+        <v>18</v>
+      </c>
+      <c r="T23" t="s">
+        <v>106</v>
+      </c>
+      <c r="U23" t="s">
+        <v>142</v>
+      </c>
+      <c r="V23" t="s">
         <v>143</v>
       </c>
-      <c r="I23" t="s">
+      <c r="W23" t="s">
         <v>144</v>
       </c>
-      <c r="J23">
-        <v>44.1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23">
-        <v>2019.04</v>
-      </c>
-      <c r="O23" s="2">
-        <v>43647</v>
-      </c>
-      <c r="P23">
-        <v>18</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>110</v>
-      </c>
-      <c r="R23" t="s">
-        <v>146</v>
-      </c>
-      <c r="S23" t="s">
-        <v>147</v>
-      </c>
-      <c r="T23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C24">
+        <v>33.200000000000003</v>
       </c>
       <c r="D24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
         <v>89</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>91</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>808</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24">
+        <v>44.1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24">
+        <v>2019.04</v>
+      </c>
+      <c r="R24" s="2">
+        <v>43647</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24" t="s">
+        <v>106</v>
+      </c>
+      <c r="U24" t="s">
+        <v>142</v>
+      </c>
+      <c r="V24" t="s">
         <v>143</v>
       </c>
-      <c r="I24" t="s">
+      <c r="W24" t="s">
         <v>144</v>
       </c>
-      <c r="J24">
-        <v>44.1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>145</v>
-      </c>
-      <c r="L24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M24" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24">
-        <v>2019.04</v>
-      </c>
-      <c r="O24" s="2">
-        <v>43647</v>
-      </c>
-      <c r="P24">
-        <v>18</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" t="s">
-        <v>146</v>
-      </c>
-      <c r="S24" t="s">
-        <v>147</v>
-      </c>
-      <c r="T24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
       </c>
       <c r="D25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25">
+        <v>816</v>
+      </c>
+      <c r="K25" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25">
+        <v>54.4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" t="s">
         <v>101</v>
       </c>
-      <c r="G25">
-        <v>816</v>
-      </c>
-      <c r="H25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25">
-        <v>54.4</v>
-      </c>
-      <c r="K25" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" t="s">
-        <v>130</v>
-      </c>
-      <c r="M25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" t="s">
-        <v>167</v>
-      </c>
-      <c r="O25" s="2">
+      <c r="Q25" t="s">
+        <v>163</v>
+      </c>
+      <c r="R25" s="2">
         <v>43641</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>24</v>
       </c>
-      <c r="Q25" t="s">
-        <v>98</v>
-      </c>
-      <c r="R25" t="s">
-        <v>99</v>
-      </c>
-      <c r="S25" t="s">
-        <v>147</v>
-      </c>
       <c r="T25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U25" t="s">
+        <v>95</v>
+      </c>
+      <c r="V25" t="s">
+        <v>143</v>
+      </c>
+      <c r="W25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
       </c>
       <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
         <v>91</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>816</v>
       </c>
-      <c r="H26" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" t="s">
-        <v>165</v>
-      </c>
-      <c r="J26">
+      <c r="K26" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26">
         <v>54.4</v>
       </c>
-      <c r="K26" t="s">
-        <v>166</v>
-      </c>
-      <c r="L26" t="s">
-        <v>130</v>
-      </c>
-      <c r="M26" t="s">
-        <v>105</v>
-      </c>
       <c r="N26" t="s">
-        <v>167</v>
-      </c>
-      <c r="O26" s="2">
+        <v>162</v>
+      </c>
+      <c r="O26" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>163</v>
+      </c>
+      <c r="R26" s="2">
         <v>43641</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>24</v>
       </c>
-      <c r="Q26" t="s">
-        <v>98</v>
-      </c>
-      <c r="R26" t="s">
-        <v>99</v>
-      </c>
-      <c r="S26" t="s">
-        <v>147</v>
-      </c>
       <c r="T26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U26" t="s">
+        <v>95</v>
+      </c>
+      <c r="V26" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C27">
+        <v>26.3</v>
       </c>
       <c r="D27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
         <v>89</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27">
+        <v>818</v>
+      </c>
+      <c r="K27" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27">
+        <v>44.4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" t="s">
         <v>101</v>
       </c>
-      <c r="G27">
-        <v>818</v>
-      </c>
-      <c r="H27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" t="s">
-        <v>152</v>
-      </c>
-      <c r="J27">
-        <v>44.4</v>
-      </c>
-      <c r="K27" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M27" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="2">
+      <c r="Q27" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" s="2">
         <v>43447</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>218</v>
       </c>
-      <c r="Q27" t="s">
-        <v>98</v>
-      </c>
-      <c r="R27" t="s">
-        <v>99</v>
-      </c>
-      <c r="S27" t="s">
-        <v>98</v>
-      </c>
       <c r="T27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U27" t="s">
+        <v>95</v>
+      </c>
+      <c r="V27" t="s">
+        <v>94</v>
+      </c>
+      <c r="W27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C28">
+        <v>26.3</v>
       </c>
       <c r="D28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
         <v>89</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>91</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>818</v>
       </c>
-      <c r="H28" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28">
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28">
         <v>44.4</v>
       </c>
-      <c r="K28" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" t="s">
-        <v>130</v>
-      </c>
-      <c r="M28" t="s">
-        <v>105</v>
-      </c>
       <c r="N28" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="2">
+        <v>141</v>
+      </c>
+      <c r="O28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>149</v>
+      </c>
+      <c r="R28" s="2">
         <v>43447</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>218</v>
       </c>
-      <c r="Q28" t="s">
-        <v>98</v>
-      </c>
-      <c r="R28" t="s">
-        <v>99</v>
-      </c>
-      <c r="S28" t="s">
-        <v>98</v>
-      </c>
       <c r="T28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U28" t="s">
+        <v>95</v>
+      </c>
+      <c r="V28" t="s">
+        <v>94</v>
+      </c>
+      <c r="W28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C29">
+        <v>27.2</v>
       </c>
       <c r="D29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>90</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29">
+        <v>821</v>
+      </c>
+      <c r="K29" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s">
+        <v>156</v>
+      </c>
+      <c r="M29">
+        <v>46.2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>141</v>
+      </c>
+      <c r="O29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" t="s">
         <v>101</v>
       </c>
-      <c r="G29">
-        <v>821</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="Q29" t="s">
+        <v>157</v>
+      </c>
+      <c r="R29" s="2">
+        <v>43598</v>
+      </c>
+      <c r="S29">
+        <v>67</v>
+      </c>
+      <c r="T29" t="s">
+        <v>158</v>
+      </c>
+      <c r="U29" t="s">
         <v>159</v>
       </c>
-      <c r="I29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J29">
-        <v>46.2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" t="s">
-        <v>130</v>
-      </c>
-      <c r="M29" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" t="s">
-        <v>161</v>
-      </c>
-      <c r="O29" s="2">
-        <v>43598</v>
-      </c>
-      <c r="P29">
-        <v>67</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>162</v>
-      </c>
-      <c r="R29" t="s">
-        <v>163</v>
-      </c>
-      <c r="S29" t="s">
-        <v>98</v>
-      </c>
-      <c r="T29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V29" t="s">
+        <v>94</v>
+      </c>
+      <c r="W29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C30">
+        <v>27.2</v>
       </c>
       <c r="D30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
         <v>89</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>90</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>91</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>821</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30">
+        <v>46.2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>157</v>
+      </c>
+      <c r="R30" s="2">
+        <v>43598</v>
+      </c>
+      <c r="S30">
+        <v>67</v>
+      </c>
+      <c r="T30" t="s">
+        <v>158</v>
+      </c>
+      <c r="U30" t="s">
         <v>159</v>
       </c>
-      <c r="I30" t="s">
-        <v>160</v>
-      </c>
-      <c r="J30">
-        <v>46.2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>145</v>
-      </c>
-      <c r="L30" t="s">
-        <v>130</v>
-      </c>
-      <c r="M30" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30" t="s">
-        <v>161</v>
-      </c>
-      <c r="O30" s="2">
-        <v>43598</v>
-      </c>
-      <c r="P30">
-        <v>67</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>162</v>
-      </c>
-      <c r="R30" t="s">
-        <v>163</v>
-      </c>
-      <c r="S30" t="s">
-        <v>98</v>
-      </c>
-      <c r="T30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V30" t="s">
+        <v>94</v>
+      </c>
+      <c r="W30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C31">
+        <v>27.2</v>
       </c>
       <c r="D31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
         <v>89</v>
       </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31">
+        <v>821</v>
+      </c>
+      <c r="K31" t="s">
+        <v>155</v>
+      </c>
+      <c r="L31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M31">
+        <v>46.2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" t="s">
         <v>101</v>
       </c>
-      <c r="G31">
-        <v>821</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="Q31" t="s">
+        <v>157</v>
+      </c>
+      <c r="R31" s="2">
+        <v>43598</v>
+      </c>
+      <c r="S31">
+        <v>67</v>
+      </c>
+      <c r="T31" t="s">
+        <v>158</v>
+      </c>
+      <c r="U31" t="s">
         <v>159</v>
       </c>
-      <c r="I31" t="s">
-        <v>160</v>
-      </c>
-      <c r="J31">
-        <v>46.2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" t="s">
-        <v>130</v>
-      </c>
-      <c r="M31" t="s">
-        <v>105</v>
-      </c>
-      <c r="N31" t="s">
-        <v>161</v>
-      </c>
-      <c r="O31" s="2">
-        <v>43598</v>
-      </c>
-      <c r="P31">
-        <v>67</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R31" t="s">
-        <v>163</v>
-      </c>
-      <c r="S31" t="s">
-        <v>98</v>
-      </c>
-      <c r="T31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V31" t="s">
+        <v>94</v>
+      </c>
+      <c r="W31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C32">
+        <v>27.2</v>
       </c>
       <c r="D32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" t="s">
         <v>91</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>821</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
+        <v>155</v>
+      </c>
+      <c r="L32" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32">
+        <v>46.2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>141</v>
+      </c>
+      <c r="O32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>157</v>
+      </c>
+      <c r="R32" s="2">
+        <v>43598</v>
+      </c>
+      <c r="S32">
+        <v>67</v>
+      </c>
+      <c r="T32" t="s">
+        <v>158</v>
+      </c>
+      <c r="U32" t="s">
         <v>159</v>
       </c>
-      <c r="I32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J32">
-        <v>46.2</v>
-      </c>
-      <c r="K32" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" t="s">
-        <v>130</v>
-      </c>
-      <c r="M32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N32" t="s">
-        <v>161</v>
-      </c>
-      <c r="O32" s="2">
-        <v>43598</v>
-      </c>
-      <c r="P32">
-        <v>67</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>162</v>
-      </c>
-      <c r="R32" t="s">
-        <v>163</v>
-      </c>
-      <c r="S32" t="s">
-        <v>98</v>
-      </c>
-      <c r="T32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V32" t="s">
+        <v>94</v>
+      </c>
+      <c r="W32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C33">
+        <v>19.3</v>
       </c>
       <c r="D33" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
         <v>89</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33">
+      <c r="I33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33">
         <v>823</v>
-      </c>
-      <c r="H33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33">
-        <v>44.3</v>
       </c>
       <c r="K33" t="s">
         <v>145</v>
       </c>
       <c r="L33" t="s">
-        <v>130</v>
-      </c>
-      <c r="M33" t="s">
-        <v>105</v>
-      </c>
-      <c r="N33">
+        <v>146</v>
+      </c>
+      <c r="M33">
+        <v>44.3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>141</v>
+      </c>
+      <c r="O33" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q33">
         <v>2019.03</v>
       </c>
-      <c r="O33" s="2">
+      <c r="R33" s="2">
         <v>43571</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>94</v>
       </c>
-      <c r="Q33" t="s">
-        <v>110</v>
-      </c>
-      <c r="R33" t="s">
-        <v>99</v>
-      </c>
-      <c r="S33" t="s">
-        <v>98</v>
-      </c>
       <c r="T33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="U33" t="s">
+        <v>95</v>
+      </c>
+      <c r="V33" t="s">
+        <v>94</v>
+      </c>
+      <c r="W33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C34">
+        <v>19.3</v>
       </c>
       <c r="D34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
         <v>89</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>90</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>91</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>823</v>
-      </c>
-      <c r="H34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34">
-        <v>44.3</v>
       </c>
       <c r="K34" t="s">
         <v>145</v>
       </c>
       <c r="L34" t="s">
-        <v>130</v>
-      </c>
-      <c r="M34" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34">
+        <v>146</v>
+      </c>
+      <c r="M34">
+        <v>44.3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>141</v>
+      </c>
+      <c r="O34" t="s">
+        <v>126</v>
+      </c>
+      <c r="P34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34">
         <v>2019.03</v>
       </c>
-      <c r="O34" s="2">
+      <c r="R34" s="2">
         <v>43571</v>
       </c>
-      <c r="P34">
+      <c r="S34">
         <v>94</v>
       </c>
-      <c r="Q34" t="s">
-        <v>110</v>
-      </c>
-      <c r="R34" t="s">
-        <v>99</v>
-      </c>
-      <c r="S34" t="s">
-        <v>98</v>
-      </c>
       <c r="T34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="U34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V34" t="s">
+        <v>94</v>
+      </c>
+      <c r="W34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C35">
+        <v>19.3</v>
       </c>
       <c r="D35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" t="s">
         <v>89</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>90</v>
       </c>
-      <c r="F35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35">
+      <c r="I35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35">
         <v>823</v>
-      </c>
-      <c r="H35" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" t="s">
-        <v>150</v>
-      </c>
-      <c r="J35">
-        <v>44.3</v>
       </c>
       <c r="K35" t="s">
         <v>145</v>
       </c>
       <c r="L35" t="s">
-        <v>130</v>
-      </c>
-      <c r="M35" t="s">
-        <v>105</v>
-      </c>
-      <c r="N35">
+        <v>146</v>
+      </c>
+      <c r="M35">
+        <v>44.3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>141</v>
+      </c>
+      <c r="O35" t="s">
+        <v>126</v>
+      </c>
+      <c r="P35" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q35">
         <v>2019.03</v>
       </c>
-      <c r="O35" s="2">
+      <c r="R35" s="2">
         <v>43571</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>94</v>
       </c>
-      <c r="Q35" t="s">
-        <v>110</v>
-      </c>
-      <c r="R35" t="s">
-        <v>99</v>
-      </c>
-      <c r="S35" t="s">
-        <v>98</v>
-      </c>
       <c r="T35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="U35" t="s">
+        <v>95</v>
+      </c>
+      <c r="V35" t="s">
+        <v>94</v>
+      </c>
+      <c r="W35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="C36">
+        <v>19.3</v>
       </c>
       <c r="D36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
         <v>89</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>90</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>91</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>823</v>
-      </c>
-      <c r="H36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J36">
-        <v>44.3</v>
       </c>
       <c r="K36" t="s">
         <v>145</v>
       </c>
       <c r="L36" t="s">
-        <v>130</v>
-      </c>
-      <c r="M36" t="s">
-        <v>105</v>
-      </c>
-      <c r="N36">
+        <v>146</v>
+      </c>
+      <c r="M36">
+        <v>44.3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q36">
         <v>2019.03</v>
       </c>
-      <c r="O36" s="2">
+      <c r="R36" s="2">
         <v>43571</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <v>94</v>
       </c>
-      <c r="Q36" t="s">
-        <v>110</v>
-      </c>
-      <c r="R36" t="s">
-        <v>99</v>
-      </c>
-      <c r="S36" t="s">
-        <v>98</v>
-      </c>
       <c r="T36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="U36" t="s">
+        <v>95</v>
+      </c>
+      <c r="V36" t="s">
+        <v>94</v>
+      </c>
+      <c r="W36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C37">
+        <v>31.5</v>
       </c>
       <c r="D37" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" t="s">
         <v>89</v>
       </c>
-      <c r="E37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" t="s">
+        <v>95</v>
+      </c>
+      <c r="N37" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" t="s">
         <v>101</v>
       </c>
-      <c r="G37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" t="s">
-        <v>168</v>
-      </c>
-      <c r="I37" t="s">
-        <v>169</v>
-      </c>
-      <c r="J37" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" t="s">
-        <v>99</v>
-      </c>
-      <c r="L37" t="s">
-        <v>99</v>
-      </c>
-      <c r="M37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O37" s="2">
+      <c r="Q37" t="s">
+        <v>166</v>
+      </c>
+      <c r="R37" s="2">
         <v>43469</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>196</v>
       </c>
-      <c r="Q37" t="s">
-        <v>110</v>
-      </c>
-      <c r="R37" t="s">
-        <v>99</v>
-      </c>
-      <c r="S37" t="s">
-        <v>98</v>
-      </c>
       <c r="T37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="U37" t="s">
+        <v>95</v>
+      </c>
+      <c r="V37" t="s">
+        <v>94</v>
+      </c>
+      <c r="W37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="C38">
+        <v>31.5</v>
       </c>
       <c r="D38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
         <v>89</v>
       </c>
-      <c r="E38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" t="s">
         <v>91</v>
       </c>
-      <c r="G38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" t="s">
-        <v>168</v>
-      </c>
-      <c r="I38" t="s">
-        <v>169</v>
-      </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="M38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N38" t="s">
-        <v>170</v>
-      </c>
-      <c r="O38" s="2">
+        <v>95</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>166</v>
+      </c>
+      <c r="R38" s="2">
         <v>43469</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>196</v>
       </c>
-      <c r="Q38" t="s">
-        <v>110</v>
-      </c>
-      <c r="R38" t="s">
-        <v>99</v>
-      </c>
-      <c r="S38" t="s">
-        <v>98</v>
-      </c>
       <c r="T38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="U38" t="s">
+        <v>95</v>
+      </c>
+      <c r="V38" t="s">
+        <v>94</v>
+      </c>
+      <c r="W38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" t="s">
         <v>88</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>89</v>
       </c>
-      <c r="E39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39">
+        <v>524</v>
+      </c>
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" t="s">
+        <v>118</v>
+      </c>
+      <c r="M39">
+        <v>32.9</v>
+      </c>
+      <c r="N39" t="s">
+        <v>110</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="s">
         <v>101</v>
       </c>
-      <c r="G39">
-        <v>524</v>
-      </c>
-      <c r="H39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39">
-        <v>32.9</v>
-      </c>
-      <c r="K39" t="s">
-        <v>114</v>
-      </c>
-      <c r="L39" t="s">
-        <v>95</v>
-      </c>
-      <c r="M39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N39" t="s">
-        <v>123</v>
-      </c>
-      <c r="O39" s="2">
+      <c r="Q39" t="s">
+        <v>119</v>
+      </c>
+      <c r="R39" s="2">
         <v>43500</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>22</v>
       </c>
-      <c r="Q39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R39" t="s">
-        <v>99</v>
-      </c>
-      <c r="S39" t="s">
-        <v>116</v>
-      </c>
       <c r="T39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U39" t="s">
+        <v>95</v>
+      </c>
+      <c r="V39" t="s">
+        <v>112</v>
+      </c>
+      <c r="W39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="s">
         <v>88</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>89</v>
       </c>
-      <c r="E40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" t="s">
         <v>91</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>524</v>
       </c>
-      <c r="H40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" t="s">
-        <v>122</v>
-      </c>
-      <c r="J40">
+      <c r="K40" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M40">
         <v>32.9</v>
       </c>
-      <c r="K40" t="s">
-        <v>114</v>
-      </c>
-      <c r="L40" t="s">
-        <v>95</v>
-      </c>
-      <c r="M40" t="s">
-        <v>105</v>
-      </c>
       <c r="N40" t="s">
-        <v>123</v>
-      </c>
-      <c r="O40" s="2">
+        <v>110</v>
+      </c>
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>119</v>
+      </c>
+      <c r="R40" s="2">
         <v>43500</v>
       </c>
-      <c r="P40">
+      <c r="S40">
         <v>22</v>
       </c>
-      <c r="Q40" t="s">
-        <v>98</v>
-      </c>
-      <c r="R40" t="s">
-        <v>99</v>
-      </c>
-      <c r="S40" t="s">
-        <v>116</v>
-      </c>
       <c r="T40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U40" t="s">
+        <v>95</v>
+      </c>
+      <c r="V40" t="s">
+        <v>112</v>
+      </c>
+      <c r="W40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
-      </c>
-      <c r="C41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41">
+        <v>24.8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" t="s">
         <v>88</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>89</v>
       </c>
-      <c r="E41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" t="s">
         <v>91</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>527</v>
       </c>
-      <c r="H41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J41">
+      <c r="K41" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41">
         <v>36.200000000000003</v>
       </c>
-      <c r="K41" t="s">
-        <v>114</v>
-      </c>
-      <c r="L41" t="s">
-        <v>130</v>
-      </c>
-      <c r="M41" t="s">
-        <v>105</v>
-      </c>
       <c r="N41" t="s">
-        <v>131</v>
-      </c>
-      <c r="O41" s="2">
+        <v>110</v>
+      </c>
+      <c r="O41" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>127</v>
+      </c>
+      <c r="R41" s="2">
         <v>43488</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>34</v>
       </c>
-      <c r="Q41" t="s">
-        <v>98</v>
-      </c>
-      <c r="R41" t="s">
-        <v>99</v>
-      </c>
-      <c r="S41" t="s">
-        <v>116</v>
-      </c>
       <c r="T41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U41" t="s">
+        <v>95</v>
+      </c>
+      <c r="V41" t="s">
+        <v>112</v>
+      </c>
+      <c r="W41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42">
+        <v>24.8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
         <v>88</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>89</v>
       </c>
-      <c r="E42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42">
+        <v>527</v>
+      </c>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="N42" t="s">
+        <v>110</v>
+      </c>
+      <c r="O42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P42" t="s">
         <v>101</v>
       </c>
-      <c r="G42">
-        <v>527</v>
-      </c>
-      <c r="H42" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" t="s">
-        <v>129</v>
-      </c>
-      <c r="J42">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="K42" t="s">
-        <v>114</v>
-      </c>
-      <c r="L42" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" t="s">
-        <v>105</v>
-      </c>
-      <c r="N42" t="s">
-        <v>131</v>
-      </c>
-      <c r="O42" s="2">
+      <c r="Q42" t="s">
+        <v>127</v>
+      </c>
+      <c r="R42" s="2">
         <v>43488</v>
       </c>
-      <c r="P42">
+      <c r="S42">
         <v>34</v>
       </c>
-      <c r="Q42" t="s">
-        <v>98</v>
-      </c>
-      <c r="R42" t="s">
-        <v>99</v>
-      </c>
-      <c r="S42" t="s">
-        <v>116</v>
-      </c>
       <c r="T42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V42" t="s">
+        <v>112</v>
+      </c>
+      <c r="W42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43">
+        <v>25.7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
         <v>88</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>89</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>90</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43">
+        <v>529</v>
+      </c>
+      <c r="K43" t="s">
+        <v>108</v>
+      </c>
+      <c r="L43" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43" t="s">
+        <v>110</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="s">
         <v>101</v>
       </c>
-      <c r="G43">
-        <v>529</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="Q43" t="s">
+        <v>111</v>
+      </c>
+      <c r="R43" s="2">
+        <v>43510</v>
+      </c>
+      <c r="S43">
+        <v>12</v>
+      </c>
+      <c r="T43" t="s">
+        <v>94</v>
+      </c>
+      <c r="U43" t="s">
+        <v>95</v>
+      </c>
+      <c r="V43" t="s">
         <v>112</v>
       </c>
-      <c r="I43" t="s">
+      <c r="W43" t="s">
         <v>113</v>
       </c>
-      <c r="J43">
-        <v>31</v>
-      </c>
-      <c r="K43" t="s">
-        <v>114</v>
-      </c>
-      <c r="L43" t="s">
-        <v>95</v>
-      </c>
-      <c r="M43" t="s">
-        <v>105</v>
-      </c>
-      <c r="N43" t="s">
-        <v>115</v>
-      </c>
-      <c r="O43" s="2">
-        <v>43510</v>
-      </c>
-      <c r="P43">
-        <v>12</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>98</v>
-      </c>
-      <c r="R43" t="s">
-        <v>99</v>
-      </c>
-      <c r="S43" t="s">
-        <v>116</v>
-      </c>
-      <c r="T43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44">
+        <v>25.7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
         <v>89</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>90</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>91</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>529</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K44" t="s">
+        <v>108</v>
+      </c>
+      <c r="L44" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44">
+        <v>31</v>
+      </c>
+      <c r="N44" t="s">
+        <v>110</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>111</v>
+      </c>
+      <c r="R44" s="2">
+        <v>43510</v>
+      </c>
+      <c r="S44">
+        <v>12</v>
+      </c>
+      <c r="T44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U44" t="s">
+        <v>95</v>
+      </c>
+      <c r="V44" t="s">
         <v>112</v>
       </c>
-      <c r="I44" t="s">
+      <c r="W44" t="s">
         <v>113</v>
       </c>
-      <c r="J44">
-        <v>31</v>
-      </c>
-      <c r="K44" t="s">
-        <v>114</v>
-      </c>
-      <c r="L44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44" t="s">
-        <v>105</v>
-      </c>
-      <c r="N44" t="s">
-        <v>115</v>
-      </c>
-      <c r="O44" s="2">
-        <v>43510</v>
-      </c>
-      <c r="P44">
-        <v>12</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>98</v>
-      </c>
-      <c r="R44" t="s">
-        <v>99</v>
-      </c>
-      <c r="S44" t="s">
-        <v>116</v>
-      </c>
-      <c r="T44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45">
+        <v>25.7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" t="s">
         <v>88</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
         <v>89</v>
       </c>
-      <c r="E45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45">
+        <v>529</v>
+      </c>
+      <c r="K45" t="s">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s">
+        <v>109</v>
+      </c>
+      <c r="M45">
+        <v>31</v>
+      </c>
+      <c r="N45" t="s">
+        <v>110</v>
+      </c>
+      <c r="O45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" t="s">
         <v>101</v>
       </c>
-      <c r="G45">
-        <v>529</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="Q45" t="s">
+        <v>111</v>
+      </c>
+      <c r="R45" s="2">
+        <v>43510</v>
+      </c>
+      <c r="S45">
+        <v>12</v>
+      </c>
+      <c r="T45" t="s">
+        <v>94</v>
+      </c>
+      <c r="U45" t="s">
+        <v>95</v>
+      </c>
+      <c r="V45" t="s">
         <v>112</v>
       </c>
-      <c r="I45" t="s">
+      <c r="W45" t="s">
         <v>113</v>
       </c>
-      <c r="J45">
-        <v>31</v>
-      </c>
-      <c r="K45" t="s">
-        <v>114</v>
-      </c>
-      <c r="L45" t="s">
-        <v>95</v>
-      </c>
-      <c r="M45" t="s">
-        <v>105</v>
-      </c>
-      <c r="N45" t="s">
-        <v>115</v>
-      </c>
-      <c r="O45" s="2">
-        <v>43510</v>
-      </c>
-      <c r="P45">
-        <v>12</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>98</v>
-      </c>
-      <c r="R45" t="s">
-        <v>99</v>
-      </c>
-      <c r="S45" t="s">
-        <v>116</v>
-      </c>
-      <c r="T45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46">
+        <v>25.7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" t="s">
         <v>88</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>89</v>
       </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" t="s">
         <v>91</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>529</v>
       </c>
-      <c r="H46" t="s">
+      <c r="K46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L46" t="s">
+        <v>109</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46" t="s">
+        <v>110</v>
+      </c>
+      <c r="O46" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>111</v>
+      </c>
+      <c r="R46" s="2">
+        <v>43510</v>
+      </c>
+      <c r="S46">
+        <v>12</v>
+      </c>
+      <c r="T46" t="s">
+        <v>94</v>
+      </c>
+      <c r="U46" t="s">
+        <v>95</v>
+      </c>
+      <c r="V46" t="s">
         <v>112</v>
       </c>
-      <c r="I46" t="s">
+      <c r="W46" t="s">
         <v>113</v>
       </c>
-      <c r="J46">
-        <v>31</v>
-      </c>
-      <c r="K46" t="s">
-        <v>114</v>
-      </c>
-      <c r="L46" t="s">
-        <v>95</v>
-      </c>
-      <c r="M46" t="s">
-        <v>105</v>
-      </c>
-      <c r="N46" t="s">
-        <v>115</v>
-      </c>
-      <c r="O46" s="2">
-        <v>43510</v>
-      </c>
-      <c r="P46">
-        <v>12</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>98</v>
-      </c>
-      <c r="R46" t="s">
-        <v>99</v>
-      </c>
-      <c r="S46" t="s">
-        <v>116</v>
-      </c>
-      <c r="T46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47">
+        <v>17.8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" t="s">
         <v>88</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
         <v>89</v>
       </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47">
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47">
         <v>531</v>
-      </c>
-      <c r="H47" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47">
-        <v>31.6</v>
       </c>
       <c r="K47" t="s">
         <v>114</v>
       </c>
       <c r="L47" t="s">
-        <v>95</v>
-      </c>
-      <c r="M47" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="M47">
+        <v>31.6</v>
       </c>
       <c r="N47" t="s">
-        <v>120</v>
-      </c>
-      <c r="O47" s="2">
+        <v>110</v>
+      </c>
+      <c r="O47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>116</v>
+      </c>
+      <c r="R47" s="2">
         <v>43487</v>
       </c>
-      <c r="P47">
+      <c r="S47">
         <v>35</v>
       </c>
-      <c r="Q47" t="s">
-        <v>98</v>
-      </c>
-      <c r="R47" t="s">
-        <v>99</v>
-      </c>
-      <c r="S47" t="s">
-        <v>116</v>
-      </c>
       <c r="T47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U47" t="s">
+        <v>95</v>
+      </c>
+      <c r="V47" t="s">
+        <v>112</v>
+      </c>
+      <c r="W47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
-      </c>
-      <c r="C48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48">
+        <v>17.8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" t="s">
         <v>88</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>89</v>
       </c>
-      <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" t="s">
         <v>91</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>531</v>
-      </c>
-      <c r="H48" t="s">
-        <v>118</v>
-      </c>
-      <c r="I48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J48">
-        <v>31.6</v>
       </c>
       <c r="K48" t="s">
         <v>114</v>
       </c>
       <c r="L48" t="s">
-        <v>95</v>
-      </c>
-      <c r="M48" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="M48">
+        <v>31.6</v>
       </c>
       <c r="N48" t="s">
-        <v>120</v>
-      </c>
-      <c r="O48" s="2">
+        <v>110</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>116</v>
+      </c>
+      <c r="R48" s="2">
         <v>43487</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>35</v>
       </c>
-      <c r="Q48" t="s">
-        <v>98</v>
-      </c>
-      <c r="R48" t="s">
-        <v>99</v>
-      </c>
-      <c r="S48" t="s">
-        <v>116</v>
-      </c>
       <c r="T48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U48" t="s">
+        <v>95</v>
+      </c>
+      <c r="V48" t="s">
+        <v>112</v>
+      </c>
+      <c r="W48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49">
+        <v>17.8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" t="s">
         <v>88</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>89</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>90</v>
       </c>
-      <c r="F49" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49">
+      <c r="I49" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49">
         <v>531</v>
-      </c>
-      <c r="H49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49">
-        <v>31.6</v>
       </c>
       <c r="K49" t="s">
         <v>114</v>
       </c>
       <c r="L49" t="s">
-        <v>95</v>
-      </c>
-      <c r="M49" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="M49">
+        <v>31.6</v>
       </c>
       <c r="N49" t="s">
-        <v>120</v>
-      </c>
-      <c r="O49" s="2">
+        <v>110</v>
+      </c>
+      <c r="O49" t="s">
+        <v>93</v>
+      </c>
+      <c r="P49" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>116</v>
+      </c>
+      <c r="R49" s="2">
         <v>43487</v>
       </c>
-      <c r="P49">
+      <c r="S49">
         <v>35</v>
       </c>
-      <c r="Q49" t="s">
-        <v>98</v>
-      </c>
-      <c r="R49" t="s">
-        <v>99</v>
-      </c>
-      <c r="S49" t="s">
-        <v>116</v>
-      </c>
       <c r="T49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U49" t="s">
+        <v>95</v>
+      </c>
+      <c r="V49" t="s">
+        <v>112</v>
+      </c>
+      <c r="W49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50">
+        <v>17.8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
         <v>88</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>89</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>90</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>91</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>531</v>
-      </c>
-      <c r="H50" t="s">
-        <v>118</v>
-      </c>
-      <c r="I50" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50">
-        <v>31.6</v>
       </c>
       <c r="K50" t="s">
         <v>114</v>
       </c>
       <c r="L50" t="s">
-        <v>95</v>
-      </c>
-      <c r="M50" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="M50">
+        <v>31.6</v>
       </c>
       <c r="N50" t="s">
-        <v>120</v>
-      </c>
-      <c r="O50" s="2">
+        <v>110</v>
+      </c>
+      <c r="O50" t="s">
+        <v>93</v>
+      </c>
+      <c r="P50" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>116</v>
+      </c>
+      <c r="R50" s="2">
         <v>43487</v>
       </c>
-      <c r="P50">
+      <c r="S50">
         <v>35</v>
       </c>
-      <c r="Q50" t="s">
-        <v>98</v>
-      </c>
-      <c r="R50" t="s">
-        <v>99</v>
-      </c>
-      <c r="S50" t="s">
-        <v>116</v>
-      </c>
       <c r="T50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U50" t="s">
+        <v>95</v>
+      </c>
+      <c r="V50" t="s">
+        <v>112</v>
+      </c>
+      <c r="W50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51">
+        <v>20.9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
         <v>88</v>
       </c>
-      <c r="D51" t="s">
+      <c r="G51" t="s">
         <v>89</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>90</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51">
+        <v>533</v>
+      </c>
+      <c r="K51" t="s">
+        <v>103</v>
+      </c>
+      <c r="L51" t="s">
+        <v>104</v>
+      </c>
+      <c r="M51">
+        <v>29.8</v>
+      </c>
+      <c r="N51" t="s">
+        <v>92</v>
+      </c>
+      <c r="O51" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" t="s">
         <v>101</v>
       </c>
-      <c r="G51">
-        <v>533</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="Q51" t="s">
+        <v>105</v>
+      </c>
+      <c r="R51" s="2">
+        <v>43415</v>
+      </c>
+      <c r="S51">
+        <v>111</v>
+      </c>
+      <c r="T51" t="s">
+        <v>106</v>
+      </c>
+      <c r="U51" t="s">
         <v>107</v>
       </c>
-      <c r="I51" t="s">
-        <v>108</v>
-      </c>
-      <c r="J51">
-        <v>29.8</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="V51" t="s">
         <v>94</v>
       </c>
-      <c r="L51" t="s">
-        <v>95</v>
-      </c>
-      <c r="M51" t="s">
-        <v>105</v>
-      </c>
-      <c r="N51" t="s">
-        <v>109</v>
-      </c>
-      <c r="O51" s="2">
-        <v>43415</v>
-      </c>
-      <c r="P51">
-        <v>111</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>110</v>
-      </c>
-      <c r="R51" t="s">
-        <v>111</v>
-      </c>
-      <c r="S51" t="s">
-        <v>98</v>
-      </c>
-      <c r="T51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52">
+        <v>20.9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" t="s">
         <v>88</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>89</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>90</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>91</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>533</v>
       </c>
-      <c r="H52" t="s">
+      <c r="K52" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52">
+        <v>29.8</v>
+      </c>
+      <c r="N52" t="s">
+        <v>92</v>
+      </c>
+      <c r="O52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>105</v>
+      </c>
+      <c r="R52" s="2">
+        <v>43415</v>
+      </c>
+      <c r="S52">
+        <v>111</v>
+      </c>
+      <c r="T52" t="s">
+        <v>106</v>
+      </c>
+      <c r="U52" t="s">
         <v>107</v>
       </c>
-      <c r="I52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52">
-        <v>29.8</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="V52" t="s">
         <v>94</v>
       </c>
-      <c r="L52" t="s">
-        <v>95</v>
-      </c>
-      <c r="M52" t="s">
-        <v>105</v>
-      </c>
-      <c r="N52" t="s">
-        <v>109</v>
-      </c>
-      <c r="O52" s="2">
-        <v>43415</v>
-      </c>
-      <c r="P52">
-        <v>111</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>110</v>
-      </c>
-      <c r="R52" t="s">
-        <v>111</v>
-      </c>
-      <c r="S52" t="s">
-        <v>98</v>
-      </c>
-      <c r="T52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53">
+        <v>30.1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" t="s">
         <v>88</v>
       </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>89</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53">
+        <v>535</v>
+      </c>
+      <c r="K53" t="s">
+        <v>99</v>
+      </c>
+      <c r="L53" t="s">
+        <v>100</v>
+      </c>
+      <c r="M53">
+        <v>29.2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>92</v>
+      </c>
+      <c r="O53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P53" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q53" t="s">
         <v>102</v>
       </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53">
-        <v>535</v>
-      </c>
-      <c r="H53" t="s">
-        <v>103</v>
-      </c>
-      <c r="I53" t="s">
-        <v>104</v>
-      </c>
-      <c r="J53">
-        <v>29.2</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="R53" s="2">
+        <v>43363</v>
+      </c>
+      <c r="S53">
+        <v>159</v>
+      </c>
+      <c r="T53" t="s">
         <v>94</v>
       </c>
-      <c r="L53" t="s">
-        <v>95</v>
-      </c>
-      <c r="M53" t="s">
-        <v>105</v>
-      </c>
-      <c r="N53" t="s">
-        <v>106</v>
-      </c>
-      <c r="O53" s="2">
-        <v>43363</v>
-      </c>
-      <c r="P53">
-        <v>159</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>98</v>
-      </c>
-      <c r="R53" t="s">
-        <v>99</v>
-      </c>
-      <c r="S53" t="s">
-        <v>98</v>
-      </c>
-      <c r="T53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>95</v>
+      </c>
+      <c r="V53" t="s">
+        <v>94</v>
+      </c>
+      <c r="W53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54">
+        <v>30.1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" t="s">
         <v>88</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>89</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54">
+        <v>535</v>
+      </c>
+      <c r="K54" t="s">
+        <v>99</v>
+      </c>
+      <c r="L54" t="s">
+        <v>100</v>
+      </c>
+      <c r="M54">
+        <v>29.2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>92</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q54" t="s">
         <v>102</v>
       </c>
-      <c r="F54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54">
-        <v>535</v>
-      </c>
-      <c r="H54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I54" t="s">
-        <v>104</v>
-      </c>
-      <c r="J54">
-        <v>29.2</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="R54" s="2">
+        <v>43363</v>
+      </c>
+      <c r="S54">
+        <v>159</v>
+      </c>
+      <c r="T54" t="s">
         <v>94</v>
       </c>
-      <c r="L54" t="s">
-        <v>95</v>
-      </c>
-      <c r="M54" t="s">
-        <v>105</v>
-      </c>
-      <c r="N54" t="s">
-        <v>106</v>
-      </c>
-      <c r="O54" s="2">
-        <v>43363</v>
-      </c>
-      <c r="P54">
-        <v>159</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>98</v>
-      </c>
-      <c r="R54" t="s">
-        <v>99</v>
-      </c>
-      <c r="S54" t="s">
-        <v>98</v>
-      </c>
-      <c r="T54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" t="s">
+        <v>95</v>
+      </c>
+      <c r="V54" t="s">
+        <v>94</v>
+      </c>
+      <c r="W54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55">
+        <v>22.1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" t="s">
         <v>88</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>89</v>
       </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55">
+        <v>537</v>
+      </c>
+      <c r="K55" t="s">
+        <v>121</v>
+      </c>
+      <c r="L55" t="s">
+        <v>122</v>
+      </c>
+      <c r="M55">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N55" t="s">
+        <v>110</v>
+      </c>
+      <c r="O55" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" t="s">
         <v>101</v>
       </c>
-      <c r="G55">
-        <v>537</v>
-      </c>
-      <c r="H55" t="s">
-        <v>125</v>
-      </c>
-      <c r="I55" t="s">
-        <v>126</v>
-      </c>
-      <c r="J55">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="K55" t="s">
-        <v>114</v>
-      </c>
-      <c r="L55" t="s">
-        <v>95</v>
-      </c>
-      <c r="M55" t="s">
-        <v>105</v>
-      </c>
-      <c r="N55" t="s">
-        <v>127</v>
-      </c>
-      <c r="O55" s="2">
+      <c r="Q55" t="s">
+        <v>123</v>
+      </c>
+      <c r="R55" s="2">
         <v>43278</v>
       </c>
-      <c r="P55">
+      <c r="S55">
         <v>244</v>
       </c>
-      <c r="Q55" t="s">
-        <v>98</v>
-      </c>
-      <c r="R55" t="s">
-        <v>99</v>
-      </c>
-      <c r="S55" t="s">
-        <v>98</v>
-      </c>
       <c r="T55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U55" t="s">
+        <v>95</v>
+      </c>
+      <c r="V55" t="s">
+        <v>94</v>
+      </c>
+      <c r="W55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
-      </c>
-      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56">
+        <v>22.1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" t="s">
         <v>88</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>89</v>
       </c>
-      <c r="E56" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" t="s">
         <v>91</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>537</v>
       </c>
-      <c r="H56" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" t="s">
-        <v>126</v>
-      </c>
-      <c r="J56">
+      <c r="K56" t="s">
+        <v>121</v>
+      </c>
+      <c r="L56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M56">
         <v>35.799999999999997</v>
       </c>
-      <c r="K56" t="s">
-        <v>114</v>
-      </c>
-      <c r="L56" t="s">
-        <v>95</v>
-      </c>
-      <c r="M56" t="s">
-        <v>105</v>
-      </c>
       <c r="N56" t="s">
-        <v>127</v>
-      </c>
-      <c r="O56" s="2">
+        <v>110</v>
+      </c>
+      <c r="O56" t="s">
+        <v>93</v>
+      </c>
+      <c r="P56" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>123</v>
+      </c>
+      <c r="R56" s="2">
         <v>43278</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>244</v>
       </c>
-      <c r="Q56" t="s">
-        <v>98</v>
-      </c>
-      <c r="R56" t="s">
-        <v>99</v>
-      </c>
-      <c r="S56" t="s">
-        <v>98</v>
-      </c>
       <c r="T56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U56" t="s">
+        <v>95</v>
+      </c>
+      <c r="V56" t="s">
+        <v>94</v>
+      </c>
+      <c r="W56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
-      </c>
-      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57">
+        <v>22.1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
         <v>88</v>
       </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>89</v>
       </c>
-      <c r="E57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57">
+        <v>537</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" t="s">
+        <v>122</v>
+      </c>
+      <c r="M57">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N57" t="s">
+        <v>110</v>
+      </c>
+      <c r="O57" t="s">
+        <v>93</v>
+      </c>
+      <c r="P57" t="s">
         <v>101</v>
       </c>
-      <c r="G57">
-        <v>537</v>
-      </c>
-      <c r="H57" t="s">
-        <v>125</v>
-      </c>
-      <c r="I57" t="s">
-        <v>126</v>
-      </c>
-      <c r="J57">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="K57" t="s">
-        <v>114</v>
-      </c>
-      <c r="L57" t="s">
-        <v>95</v>
-      </c>
-      <c r="M57" t="s">
-        <v>105</v>
-      </c>
-      <c r="N57" t="s">
-        <v>127</v>
-      </c>
-      <c r="O57" s="2">
+      <c r="Q57" t="s">
+        <v>123</v>
+      </c>
+      <c r="R57" s="2">
         <v>43278</v>
       </c>
-      <c r="P57">
+      <c r="S57">
         <v>244</v>
       </c>
-      <c r="Q57" t="s">
-        <v>98</v>
-      </c>
-      <c r="R57" t="s">
-        <v>99</v>
-      </c>
-      <c r="S57" t="s">
-        <v>98</v>
-      </c>
       <c r="T57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U57" t="s">
+        <v>95</v>
+      </c>
+      <c r="V57" t="s">
+        <v>94</v>
+      </c>
+      <c r="W57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58">
+        <v>22.1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" t="s">
         <v>88</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
         <v>89</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>90</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>91</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>537</v>
       </c>
-      <c r="H58" t="s">
-        <v>125</v>
-      </c>
-      <c r="I58" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58">
+      <c r="K58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" t="s">
+        <v>122</v>
+      </c>
+      <c r="M58">
         <v>35.799999999999997</v>
       </c>
-      <c r="K58" t="s">
-        <v>114</v>
-      </c>
-      <c r="L58" t="s">
-        <v>95</v>
-      </c>
-      <c r="M58" t="s">
-        <v>105</v>
-      </c>
       <c r="N58" t="s">
-        <v>127</v>
-      </c>
-      <c r="O58" s="2">
+        <v>110</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>123</v>
+      </c>
+      <c r="R58" s="2">
         <v>43278</v>
       </c>
-      <c r="P58">
+      <c r="S58">
         <v>244</v>
       </c>
-      <c r="Q58" t="s">
-        <v>98</v>
-      </c>
-      <c r="R58" t="s">
-        <v>99</v>
-      </c>
-      <c r="S58" t="s">
-        <v>98</v>
-      </c>
       <c r="T58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="U58" t="s">
+        <v>95</v>
+      </c>
+      <c r="V58" t="s">
+        <v>94</v>
+      </c>
+      <c r="W58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" t="s">
-        <v>88</v>
+        <v>234</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" t="s">
-        <v>101</v>
-      </c>
-      <c r="G59">
-        <v>539</v>
-      </c>
-      <c r="H59" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" t="s">
-        <v>93</v>
-      </c>
-      <c r="J59">
-        <v>24.5</v>
-      </c>
-      <c r="K59" t="s">
-        <v>94</v>
-      </c>
-      <c r="L59" t="s">
-        <v>95</v>
-      </c>
-      <c r="M59" t="s">
-        <v>96</v>
-      </c>
-      <c r="N59" t="s">
-        <v>97</v>
-      </c>
-      <c r="O59" s="2">
-        <v>43250</v>
-      </c>
-      <c r="P59">
-        <v>272</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>98</v>
-      </c>
-      <c r="R59" t="s">
-        <v>99</v>
-      </c>
-      <c r="S59" t="s">
-        <v>98</v>
-      </c>
-      <c r="T59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
-      </c>
-      <c r="C60" t="s">
-        <v>88</v>
+        <v>234</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60">
-        <v>539</v>
-      </c>
-      <c r="H60" t="s">
-        <v>92</v>
-      </c>
-      <c r="I60" t="s">
-        <v>93</v>
-      </c>
-      <c r="J60">
-        <v>24.5</v>
-      </c>
-      <c r="K60" t="s">
-        <v>94</v>
-      </c>
-      <c r="L60" t="s">
-        <v>95</v>
-      </c>
-      <c r="M60" t="s">
-        <v>96</v>
-      </c>
-      <c r="N60" t="s">
-        <v>97</v>
-      </c>
-      <c r="O60" s="2">
-        <v>43250</v>
-      </c>
-      <c r="P60">
-        <v>272</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>98</v>
-      </c>
-      <c r="R60" t="s">
-        <v>99</v>
-      </c>
-      <c r="S60" t="s">
-        <v>98</v>
-      </c>
-      <c r="T60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
         <v>233</v>
       </c>
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61">
-        <v>539</v>
-      </c>
-      <c r="H61" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61">
-        <v>24.5</v>
-      </c>
-      <c r="K61" t="s">
-        <v>94</v>
-      </c>
-      <c r="L61" t="s">
-        <v>95</v>
-      </c>
-      <c r="M61" t="s">
-        <v>96</v>
-      </c>
-      <c r="N61" t="s">
-        <v>97</v>
-      </c>
-      <c r="O61" s="2">
-        <v>43250</v>
-      </c>
-      <c r="P61">
-        <v>272</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>98</v>
-      </c>
-      <c r="R61" t="s">
-        <v>99</v>
-      </c>
-      <c r="S61" t="s">
-        <v>98</v>
-      </c>
-      <c r="T61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>234</v>
       </c>
-      <c r="C62" t="s">
-        <v>88</v>
+      <c r="C62">
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62">
-        <v>539</v>
-      </c>
-      <c r="H62" t="s">
-        <v>92</v>
-      </c>
-      <c r="I62" t="s">
-        <v>93</v>
-      </c>
-      <c r="J62">
-        <v>24.5</v>
-      </c>
-      <c r="K62" t="s">
-        <v>94</v>
-      </c>
-      <c r="L62" t="s">
-        <v>95</v>
-      </c>
-      <c r="M62" t="s">
-        <v>96</v>
-      </c>
-      <c r="N62" t="s">
-        <v>97</v>
-      </c>
-      <c r="O62" s="2">
-        <v>43250</v>
-      </c>
-      <c r="P62">
-        <v>272</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>98</v>
-      </c>
-      <c r="R62" t="s">
-        <v>99</v>
-      </c>
-      <c r="S62" t="s">
-        <v>98</v>
-      </c>
-      <c r="T62" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T62">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D62">
     <sortCondition ref="A1:A62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
